--- a/java/Linux/Redis.xlsx
+++ b/java/Linux/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Hyperloglog" sheetId="9" r:id="rId9"/>
     <sheet name="Bitmaps" sheetId="10" r:id="rId10"/>
     <sheet name="事务" sheetId="11" r:id="rId11"/>
+    <sheet name="乐观锁" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="239">
   <si>
     <t>Redis是什么？</t>
   </si>
@@ -756,6 +757,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Hash哈希，</t>
     </r>
     <r>
@@ -1092,6 +1100,46 @@
     <t>正常执行，错误命令抛出异常
 set k6 "v6"
 incr k6    k6是字符串，不是数字,自增报错，代码没问题</t>
+  </si>
+  <si>
+    <t>悲观锁（这里没演示）</t>
+  </si>
+  <si>
+    <t>很悲观，认为什么时候都会出问题，无论做什么都会加锁
+效率低</t>
+  </si>
+  <si>
+    <t>乐观锁</t>
+  </si>
+  <si>
+    <t>很乐观，认为什么时候都不会出问题</t>
+  </si>
+  <si>
+    <t>set money 100</t>
+  </si>
+  <si>
+    <t>加乐观锁，监视money,知道了money值</t>
+  </si>
+  <si>
+    <t>watch money</t>
+  </si>
+  <si>
+    <t>花了10块钱  减10</t>
+  </si>
+  <si>
+    <t>decrby money 10</t>
+  </si>
+  <si>
+    <t>执行事务
+对比money是否改变
+没改变执行成功
+开启了事务，没有执行事务前，开新终端充值200，money改变了就执行失败</t>
+  </si>
+  <si>
+    <t>解锁，重新操作就行</t>
+  </si>
+  <si>
+    <t>unwatch</t>
   </si>
 </sst>
 </file>
@@ -1721,14 +1769,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2092,7 +2140,7 @@
   <sheetPr/>
   <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2114,7 +2162,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2122,7 +2170,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2130,7 +2178,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2138,18 +2186,18 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2157,7 +2205,7 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2165,7 +2213,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2194,7 +2242,7 @@
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -2221,7 +2269,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2253,13 +2301,13 @@
       <c r="A22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
@@ -2294,14 +2342,14 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2335,7 +2383,7 @@
       <c r="A2" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2343,7 +2391,7 @@
       <c r="A3" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2374,7 +2422,7 @@
   <sheetPr/>
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2396,7 +2444,7 @@
       <c r="A3" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2412,7 +2460,7 @@
       <c r="A5" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2444,8 +2492,90 @@
       <c r="A9" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="28.8" spans="1:2">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2460,7 +2590,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -2510,10 +2640,10 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2537,7 +2667,7 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2566,12 +2696,12 @@
       <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="2:2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2586,12 +2716,12 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="2:2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2613,7 +2743,7 @@
   <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2636,7 +2766,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B4" t="s">
@@ -2676,7 +2806,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B9" t="s">
@@ -2719,7 +2849,7 @@
       <c r="A14" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2727,7 +2857,7 @@
       <c r="A15" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2744,7 +2874,7 @@
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2757,7 +2887,7 @@
       <c r="A2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2770,7 +2900,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B4" t="s">
@@ -2927,7 +3057,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B7" t="s">
@@ -2978,7 +3108,7 @@
       <c r="A13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3012,7 +3142,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B2" t="s">
@@ -3047,7 +3177,7 @@
       <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3103,7 +3233,7 @@
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3113,7 +3243,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B2" t="s">
@@ -3121,10 +3251,10 @@
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3132,12 +3262,12 @@
       <c r="A4" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="s">
@@ -3145,15 +3275,15 @@
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B7" t="s">
@@ -3193,7 +3323,7 @@
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B12" t="s">
@@ -3245,7 +3375,7 @@
       <c r="A2" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3269,7 +3399,7 @@
       <c r="A5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>202</v>
       </c>
     </row>

--- a/java/Linux/Redis.xlsx
+++ b/java/Linux/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,17 @@
     <sheet name="Bitmaps" sheetId="10" r:id="rId10"/>
     <sheet name="事务" sheetId="11" r:id="rId11"/>
     <sheet name="乐观锁" sheetId="12" r:id="rId12"/>
+    <sheet name="持久化" sheetId="13" r:id="rId13"/>
+    <sheet name="订阅发布" sheetId="14" r:id="rId14"/>
+    <sheet name="集群环境搭建" sheetId="15" r:id="rId15"/>
+    <sheet name="缓存穿透和雪崩" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="296">
   <si>
     <t>Redis是什么？</t>
   </si>
@@ -304,6 +308,20 @@
   </si>
   <si>
     <r>
+      <t>cd /home/redis-6.0.6
+ls     有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redis.conf配置文件</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -311,8 +329,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cd /home/redis-6.0.6
-ls     有redis.conf配置文件
+      <t xml:space="preserve">
 vim redis.conf    daemonize no改daemonize yes  想是后台启动，里面</t>
     </r>
     <r>
@@ -496,6 +513,13 @@
   </si>
   <si>
     <t>flushall</t>
+  </si>
+  <si>
+    <t>密码设置</t>
+  </si>
+  <si>
+    <t>auth 密码    密码认证，没密码不需要这步
+config set requirepass "密码"</t>
   </si>
   <si>
     <t>设置键值对</t>
@@ -1140,6 +1164,294 @@
   </si>
   <si>
     <t>unwatch</t>
+  </si>
+  <si>
+    <t>RDB</t>
+  </si>
+  <si>
+    <t>redis
+只做缓存，服务器运行数据就存在，不需要持久化</t>
+  </si>
+  <si>
+    <t>redis是内存数据库，需要将数据库存到磁盘，所以redis提供了持久化功能</t>
+  </si>
+  <si>
+    <t>RDB持久化(Redis DataBase)，学操作，还是默认配置好</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指定时间间隔内将内存中的数据集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快照写入磁盘，保存在dump.rdb文件中</t>
+    </r>
+  </si>
+  <si>
+    <t>cd /home/redis-6.0.6
+rm -f dump.rdb    删除dump.rdb文件
+vim redis.conf    save 60 5 60秒内5次set key，就触发rdb，生成dump.rdb文件
+flushall和shutdown    也触发rdb，生成dump.rdb文件</t>
+  </si>
+  <si>
+    <t>恢复rdb的dump.rdb文件的数据</t>
+  </si>
+  <si>
+    <t>config get dir   查看需要存放的位置，dump.rdb文件放入该目录就行</t>
+  </si>
+  <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>适合大规模的数据恢复
+对数据完整性要不高</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>需要一定的时间间隔进程操作！如果redis意外宕机（死机），最后修改的数据就没了
+fork进程的时候，会占用一定的内容空间</t>
+  </si>
+  <si>
+    <t>AOF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AOF持久化（Append Only File）
+vim redis.conf看到append配置
+默认不开启，开启yes，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议用默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+生成appendonly.aof文件，在cd /usr/local/bin目录下</t>
+    </r>
+  </si>
+  <si>
+    <t>将我们的命令都记录下来，history，恢复用这文件就好</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appendonly.aof文件有错误，redis启动不了服务器的,需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修复appendonly.aof文件</t>
+    </r>
+  </si>
+  <si>
+    <t>cd /usr/local/bin
+redis-check-aof --fix appendonly.aof</t>
+  </si>
+  <si>
+    <t>每一次修改都同步，文件的完整会更好
+每秒同步一次，可能会丢失一秒的数据
+从不同步，效率最高</t>
+  </si>
+  <si>
+    <t>相对数据文件来说，aof远远大于rdb文件，修复的速度也比rdb慢
+aof运行效率也比rdb慢
+所以redis持久化默认开启rdb，aof没有开启</t>
+  </si>
+  <si>
+    <t>订阅发布</t>
+  </si>
+  <si>
+    <t>是一种消息通信模式：
+发送者（pub）发送消息、频道、订阅者（sub）接收消息</t>
+  </si>
+  <si>
+    <t>订阅端,订阅一个频道</t>
+  </si>
+  <si>
+    <t>subscribe pindao</t>
+  </si>
+  <si>
+    <t>发送端，发布消息到频道
+新开终端，也是连接上redis客户端的</t>
+  </si>
+  <si>
+    <t>publish pindao "hello,girl"</t>
+  </si>
+  <si>
+    <t>主从复制</t>
+  </si>
+  <si>
+    <t>一台redis服务器（主）复制到其他的redis服务器（从），主写从读，减缓服务器压力</t>
+  </si>
+  <si>
+    <t>cd /home/redis-6.0.6
+cp redis.conf redis70.conf
+cp redis.conf redis71.conf
+ls
+vim redis70.conf  
+port 6370端口的都要改  logfile变logfile "6370.log"  改dbfilename dump6370.rdb
+vim redis71.conf</t>
+  </si>
+  <si>
+    <t>启动三个redis服务器</t>
+  </si>
+  <si>
+    <t>redis-server /home/redis-6.0.6/redis70.conf
+redis-server /home/redis-6.0.6/redis71.conf</t>
+  </si>
+  <si>
+    <t>开三个终端，连接redis客户端</t>
+  </si>
+  <si>
+    <t>cd /usr/local/bin    redis默认安装路径
+redis-cli -p 6370     连接
+ping     PONG表示连接成功</t>
+  </si>
+  <si>
+    <t>看主从信息</t>
+  </si>
+  <si>
+    <t>info replication   三台都是master主机  role:master主   role:slave从</t>
+  </si>
+  <si>
+    <t>70和71从谁老大</t>
+  </si>
+  <si>
+    <t>slaveof 127.0.0.1 6379</t>
+  </si>
+  <si>
+    <t>info replication</t>
+  </si>
+  <si>
+    <t>测试主写从读</t>
+  </si>
+  <si>
+    <t>6379: set bee 6y
+6370和6371：get bee   能获取到</t>
+  </si>
+  <si>
+    <t>复制原理</t>
+  </si>
+  <si>
+    <t>主机断开，从机依旧连接主机，依然没有写的权限
+master将传送整个数据文件到slave，并完成一次完全同步
+全量复制：slave拿到数据，全部加载到内存中
+增量复制：master继续将新收集到的命令依次传给slave，完成同步</t>
+  </si>
+  <si>
+    <t>也可以层层链路</t>
+  </si>
+  <si>
+    <t>6379主
+6370是从，也是6371的主
+6371是从</t>
+  </si>
+  <si>
+    <t>主机断开，让其他变主机</t>
+  </si>
+  <si>
+    <t>slaveof no one</t>
+  </si>
+  <si>
+    <t>哨兵模式</t>
+  </si>
+  <si>
+    <t>概念</t>
+  </si>
+  <si>
+    <r>
+      <t>主机挂了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>投票选新老大，即使主机回来了也是从</t>
+    </r>
+  </si>
+  <si>
+    <t>哨兵配置文件</t>
+  </si>
+  <si>
+    <t>cd /home/redis-6.0.6
+vim sentinel.conf   没文件会新建的
+写入sentinel monitor myredis 127.0.0.1 6379 1</t>
+  </si>
+  <si>
+    <t>启动哨兵</t>
+  </si>
+  <si>
+    <t>cd /usr/local/bin
+redis-sentinel /home/redis-6.0.6/sentinel.conf</t>
+  </si>
+  <si>
+    <t>哨兵集群优点</t>
+  </si>
+  <si>
+    <t>主从可以切换，故障可以转移，系统的可用性就会更好</t>
+  </si>
+  <si>
+    <t>集群容量一旦达到上限，不好在线扩容</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1464,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1312,12 +1630,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1620,10 +1950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1632,36 +1962,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,98 +1998,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1772,22 +2102,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2140,8 +2482,8 @@
   <sheetPr/>
   <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2154,7 +2496,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2162,7 +2504,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2170,7 +2512,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2178,7 +2520,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2186,18 +2528,18 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2205,7 +2547,7 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2213,7 +2555,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2234,7 +2576,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -2242,7 +2584,7 @@
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -2269,12 +2611,12 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" ht="72" spans="1:2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2282,7 +2624,7 @@
       </c>
     </row>
     <row r="20" ht="72" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2301,16 +2643,16 @@
       <c r="A22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B24" t="s">
@@ -2318,7 +2660,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B25" t="s">
@@ -2326,7 +2668,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B26" t="s">
@@ -2334,22 +2676,30 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="28" ht="28.8" spans="1:2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="2"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="2"/>
+      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2381,34 +2731,34 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:2">
       <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2434,66 +2784,66 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:2">
       <c r="A9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2858,7 @@
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2519,66 +2869,401 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" ht="43.2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" ht="57.6" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:2">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:2">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" ht="72" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" ht="43.2" spans="1:2">
+      <c r="A14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" ht="43.2" spans="1:2">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="28.8" spans="1:2">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" ht="100.8" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:2">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:2">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" ht="57.6" spans="1:2">
+      <c r="A11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:2">
+      <c r="A12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="1:2">
+      <c r="A16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:2">
+      <c r="A17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2601,58 +3286,58 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>57</v>
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2678,56 +3363,56 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:2">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>66</v>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:2">
-      <c r="B8" s="2" t="s">
-        <v>69</v>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="2:2">
-      <c r="B9" s="2" t="s">
-        <v>70</v>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2754,111 +3439,111 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>75</v>
+      <c r="A4" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>85</v>
+      <c r="A9" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:2">
       <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2885,106 +3570,106 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>103</v>
+      <c r="A4" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3010,114 +3695,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>127</v>
+      <c r="A2" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>137</v>
+      <c r="A7" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:2">
       <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3142,83 +3827,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>125</v>
+      <c r="A2" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3243,105 +3928,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>125</v>
+      <c r="A2" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>173</v>
+      <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>176</v>
+      <c r="A5" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>179</v>
+      <c r="A6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>180</v>
+      <c r="A7" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>190</v>
+      <c r="A12" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>192</v>
+      <c r="A13" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3373,34 +4058,34 @@
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Redis.xlsx
+++ b/java/Linux/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="8" activeTab="15"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="订阅发布" sheetId="14" r:id="rId14"/>
     <sheet name="集群环境搭建" sheetId="15" r:id="rId15"/>
     <sheet name="缓存穿透和雪崩" sheetId="16" r:id="rId16"/>
+    <sheet name="redis分布式锁" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="298">
   <si>
     <t>Redis是什么？</t>
   </si>
@@ -308,6 +309,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>cd /home/redis-6.0.6
 ls     有</t>
     </r>
@@ -399,6 +407,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">cd /usr/local/bin    redis默认安装路径
 redis-cli -p 6379     </t>
     </r>
@@ -1406,6 +1421,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>主机挂了，</t>
     </r>
     <r>
@@ -1452,6 +1474,12 @@
   </si>
   <si>
     <t>集群容量一旦达到上限，不好在线扩容</t>
+  </si>
+  <si>
+    <t>setnx(key, value)</t>
+  </si>
+  <si>
+    <t>Boolean flag = stringRedisTemplate.opsForValue().setIfAbsent("lockKey", "ei");</t>
   </si>
 </sst>
 </file>
@@ -2092,12 +2120,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2496,7 +2521,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2520,7 +2545,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2528,18 +2553,18 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2576,7 +2601,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -2616,23 +2641,23 @@
       </c>
     </row>
     <row r="19" ht="72" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" ht="72" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" ht="57.6" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
@@ -2640,19 +2665,19 @@
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B24" t="s">
@@ -2660,7 +2685,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B25" t="s">
@@ -2668,7 +2693,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B26" t="s">
@@ -2676,7 +2701,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B27" t="s">
@@ -2950,10 +2975,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -2967,7 +2992,7 @@
       <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3001,13 +3026,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" ht="72" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B11" t="s">
@@ -3015,7 +3040,7 @@
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3023,7 +3048,7 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" ht="43.2" spans="1:2">
       <c r="A14" t="s">
@@ -3128,7 +3153,7 @@
       <c r="A4" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3141,7 +3166,7 @@
       <c r="A6" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3167,10 +3192,10 @@
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3199,16 +3224,16 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3216,7 +3241,7 @@
       <c r="A16" t="s">
         <v>289</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3224,7 +3249,7 @@
       <c r="A17" t="s">
         <v>291</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3258,12 +3283,43 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3451,7 +3507,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B4" t="s">
@@ -3491,7 +3547,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B9" t="s">
@@ -3572,7 +3628,7 @@
       <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3585,7 +3641,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B4" t="s">
@@ -3702,7 +3758,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B2" t="s">
@@ -3742,7 +3798,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B7" t="s">
@@ -3827,7 +3883,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B2" t="s">
@@ -3928,7 +3984,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B2" t="s">
@@ -3939,7 +3995,7 @@
       <c r="A3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3952,7 +4008,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B5" t="s">
@@ -4016,7 +4072,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>194</v>
       </c>
       <c r="B13" t="s">
@@ -4024,7 +4080,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>196</v>
       </c>

--- a/java/Linux/Redis.xlsx
+++ b/java/Linux/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="9" activeTab="16"/>
+    <workbookView windowWidth="22368" windowHeight="9467" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="String字符串" sheetId="2" r:id="rId3"/>
     <sheet name="List列表" sheetId="3" r:id="rId4"/>
     <sheet name="set集合" sheetId="4" r:id="rId5"/>
-    <sheet name="Hash哈希" sheetId="6" r:id="rId6"/>
+    <sheet name="Hash散列" sheetId="6" r:id="rId6"/>
     <sheet name="Zset有序集合" sheetId="7" r:id="rId7"/>
-    <sheet name="geospatial地理位置" sheetId="8" r:id="rId8"/>
+    <sheet name="geospatial" sheetId="8" r:id="rId8"/>
     <sheet name="Hyperloglog" sheetId="9" r:id="rId9"/>
     <sheet name="Bitmaps" sheetId="10" r:id="rId10"/>
     <sheet name="事务" sheetId="11" r:id="rId11"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="299">
   <si>
     <t>Redis是什么？</t>
   </si>
@@ -795,26 +795,7 @@
     <t>存用户信息、经常变动的信息</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hash哈希，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对象存储</t>
-    </r>
+    <t>Hash散列，对象存储</t>
   </si>
   <si>
     <t>value值是Map集合  key-map 既是 key-&lt;key-value&gt;也是键值对</t>
@@ -947,6 +928,21 @@
   </si>
   <si>
     <t>zcount myzset 1 3</t>
+  </si>
+  <si>
+    <r>
+      <t>geospatial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地理位置</t>
+    </r>
   </si>
   <si>
     <t>朋友的定位、附近的人、打车距离计算</t>
@@ -1031,7 +1027,19 @@
     <t>zrem china:city foshan    移除元素</t>
   </si>
   <si>
-    <t>Hyperloglog基数统计</t>
+    <r>
+      <t>Hyperloglog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基数统计</t>
+    </r>
   </si>
   <si>
     <t>一个人访问网站多次，但还是算作一个人
@@ -1060,7 +1068,29 @@
 pfcount jishu03    重复的a去掉了</t>
   </si>
   <si>
-    <t>Bitmaps位存储应用</t>
+    <r>
+      <t>Bitmaps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应用</t>
+    </r>
   </si>
   <si>
     <t>统计用户信息、活跃、不活跃、登录，未登录、打卡
@@ -2120,7 +2150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2147,6 +2177,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -2521,7 +2557,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2545,7 +2581,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2553,18 +2589,18 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="9"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2668,16 +2704,16 @@
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B24" t="s">
@@ -2685,7 +2721,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B25" t="s">
@@ -2693,7 +2729,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B26" t="s">
@@ -2701,7 +2737,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B27" t="s">
@@ -2745,7 +2781,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2755,35 +2791,35 @@
   </cols>
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
-      <c r="A2" t="s">
-        <v>205</v>
+      <c r="A2" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2809,66 +2845,66 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:2">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2894,63 +2930,63 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2976,75 +3012,75 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" ht="57.6" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" ht="72" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -3052,18 +3088,18 @@
     </row>
     <row r="14" ht="43.2" spans="1:2">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:2">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3093,26 +3129,26 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3138,23 +3174,23 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -3164,109 +3200,109 @@
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:2">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="1:2">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3335,7 @@
   <sheetPr/>
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3311,12 +3347,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3739,8 +3775,8 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3758,7 +3794,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B2" t="s">
@@ -3971,10 +4007,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3983,110 +4019,117 @@
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="9" t="s">
         <v>175</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
-        <v>194</v>
+      <c r="A13" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
@@ -4103,7 +4146,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -4113,35 +4156,35 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
-      <c r="A2" t="s">
-        <v>197</v>
+      <c r="A2" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Redis.xlsx
+++ b/java/Linux/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="300">
   <si>
     <t>Redis是什么？</t>
   </si>
@@ -153,6 +153,19 @@
   </si>
   <si>
     <r>
+      <t>redis下载与安装（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>windows版</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -160,7 +173,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>redis下载与安装（</t>
+      <t xml:space="preserve">），停更很久了
+</t>
     </r>
     <r>
       <rPr>
@@ -170,21 +184,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>windows版</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>），停更很久了</t>
+      <t>在github里下载msi格式的redis</t>
     </r>
   </si>
   <si>
     <t>https://blog.csdn.net/msn131420/article/details/122742423</t>
+  </si>
+  <si>
+    <t>https://github.com/MicrosoftArchive/redis/releases</t>
   </si>
   <si>
     <t>运行redis服务端</t>
@@ -217,6 +224,19 @@
   </si>
   <si>
     <r>
+      <t>redis下载与安装（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linux版</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -224,7 +244,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>redis下载与安装（</t>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -234,27 +254,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Linux版</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>），</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>推荐</t>
+      <t>推荐 只是要有阿里云服务器</t>
     </r>
   </si>
   <si>
@@ -931,6 +931,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>geospatial</t>
     </r>
     <r>
@@ -1028,6 +1035,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Hyperloglog</t>
     </r>
     <r>
@@ -1069,6 +1083,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Bitmaps</t>
     </r>
     <r>
@@ -1522,7 +1543,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1549,6 +1570,13 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1704,6 +1732,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,12 +1911,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2008,10 +2036,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2020,16 +2048,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2038,18 +2066,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2059,98 +2084,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2190,8 +2218,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2541,27 +2584,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B33"/>
+  <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="57.6" spans="1:2">
+    <row r="2" ht="54" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="1:2">
+    <row r="3" ht="81" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +2612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:2">
+    <row r="4" ht="67.5" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2593,181 +2636,196 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="72" spans="1:2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" ht="67.5" spans="1:2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" ht="28.8" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" ht="27" spans="1:2">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="14" s="13" customFormat="1" spans="1:2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" ht="28.8" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" ht="27" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" ht="28.8" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" ht="27" spans="1:2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" ht="72" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="20" ht="67.5" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" ht="72" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="21" ht="67.5" spans="1:2">
+      <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" ht="57.6" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" ht="54" spans="1:2">
+      <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" ht="28.8" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="11" t="s">
+    </row>
+    <row r="23" ht="27" spans="1:2">
+      <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" ht="28.8" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" ht="27" spans="1:2">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1"/>
     </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="https://redis.io" tooltip="https://redis.io"/>
     <hyperlink ref="B6" r:id="rId2" display="http://www.redis.cn" tooltip="http://www.redis.cn"/>
     <hyperlink ref="B8" r:id="rId3" display="https://blog.csdn.net/msn131420/article/details/122742423" tooltip="https://blog.csdn.net/msn131420/article/details/122742423"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://blog.csdn.net/w15558056319/article/details/121161207"/>
+    <hyperlink ref="B23" r:id="rId4" display="https://blog.csdn.net/w15558056319/article/details/121161207"/>
+    <hyperlink ref="B9" r:id="rId5" display="https://github.com/MicrosoftArchive/redis/releases"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2784,42 +2842,42 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="28.8" spans="1:2">
+    <row r="2" ht="27" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" ht="43.2" spans="1:2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2837,74 +2895,74 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="100.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" ht="57.6" spans="1:2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:2">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" ht="43.2" spans="1:2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:2">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2922,71 +2980,71 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="28.8" spans="1:2">
+    <row r="2" ht="27" spans="1:2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" ht="72" spans="1:2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3004,102 +3062,102 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" ht="43.2" spans="1:2">
+    <row r="2" ht="40.5" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" ht="57.6" spans="2:2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:2">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" ht="72" spans="1:2">
+    <row r="11" ht="67.5" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="1:2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" ht="43.2" spans="1:2">
+    <row r="14" ht="40.5" spans="1:2">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" ht="43.2" spans="1:2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:2">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3121,34 +3179,34 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="28.8" spans="1:2">
+    <row r="2" ht="27" spans="1:2">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3166,143 +3224,143 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" ht="100.8" spans="2:2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" ht="43.2" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:2">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" spans="1:2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" ht="57.6" spans="1:2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:2">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" ht="43.2" spans="1:2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:2">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" ht="43.2" spans="1:2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="1:2">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" ht="28.8" spans="1:2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:2">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3323,7 +3381,7 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3339,20 +3397,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3370,66 +3428,66 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3447,64 +3505,64 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" ht="72" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" ht="57.6" spans="2:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" ht="43.2" spans="2:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" ht="43.2" spans="2:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3523,119 +3581,119 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" ht="28.8" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" ht="28.8" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3654,114 +3712,114 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3775,126 +3833,126 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" ht="28.8" spans="1:2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3912,90 +3970,90 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" ht="43.2" spans="1:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4013,118 +4071,118 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" ht="43.2" spans="1:2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:2">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" ht="86.4" spans="1:2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" ht="81" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="1:2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12"/>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4149,42 +4207,42 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="43.2" spans="1:2">
+    <row r="2" ht="40.5" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" ht="57.6" spans="1:2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:2">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Redis.xlsx
+++ b/java/Linux/Redis.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="302">
   <si>
     <t>Redis是什么？</t>
   </si>
@@ -153,6 +153,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>redis下载与安装（</t>
     </r>
     <r>
@@ -223,7 +230,20 @@
     <t>get myKey</t>
   </si>
   <si>
-    <r>
+    <t>Windows中 redis 设置密码</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_42250281/article/details/128205875</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>redis下载与安装（</t>
     </r>
     <r>
@@ -2584,10 +2604,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B34"/>
+  <dimension ref="A2:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2686,28 +2706,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" s="13" customFormat="1" spans="1:2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+    <row r="14" customFormat="1" spans="1:2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="15" s="13" customFormat="1" spans="1:2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="17" ht="27" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
@@ -2722,19 +2742,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="67.5" spans="1:2">
-      <c r="A20" s="4" t="s">
+    <row r="20" ht="27" spans="1:2">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2746,33 +2766,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="54" spans="1:2">
-      <c r="A22" s="7" t="s">
+    <row r="22" ht="67.5" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:2">
+    <row r="23" ht="54" spans="1:2">
       <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11"/>
+    <row r="24" ht="27" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
@@ -2798,23 +2818,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" ht="27" spans="1:2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1"/>
+    <row r="30" ht="27" spans="1:2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2824,8 +2852,9 @@
     <hyperlink ref="B5" r:id="rId1" display="https://redis.io" tooltip="https://redis.io"/>
     <hyperlink ref="B6" r:id="rId2" display="http://www.redis.cn" tooltip="http://www.redis.cn"/>
     <hyperlink ref="B8" r:id="rId3" display="https://blog.csdn.net/msn131420/article/details/122742423" tooltip="https://blog.csdn.net/msn131420/article/details/122742423"/>
-    <hyperlink ref="B23" r:id="rId4" display="https://blog.csdn.net/w15558056319/article/details/121161207"/>
+    <hyperlink ref="B24" r:id="rId4" display="https://blog.csdn.net/w15558056319/article/details/121161207"/>
     <hyperlink ref="B9" r:id="rId5" display="https://github.com/MicrosoftArchive/redis/releases"/>
+    <hyperlink ref="B14" r:id="rId6" display="https://blog.csdn.net/qq_42250281/article/details/128205875"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2850,34 +2879,34 @@
   <sheetData>
     <row r="2" ht="27" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2903,66 +2932,66 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2988,63 +3017,63 @@
   <sheetData>
     <row r="2" ht="27" spans="1:2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3070,75 +3099,75 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" ht="40.5" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:2">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" ht="67.5" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -3146,18 +3175,18 @@
     </row>
     <row r="14" ht="40.5" spans="1:2">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:2">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3187,26 +3216,26 @@
   <sheetData>
     <row r="2" ht="27" spans="1:2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3232,135 +3261,135 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:2">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:2">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:2">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:2">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3405,12 +3434,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3436,58 +3465,58 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3513,56 +3542,56 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3589,111 +3618,111 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:2">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3720,106 +3749,106 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3845,114 +3874,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3978,82 +4007,82 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4079,110 +4108,110 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12"/>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4215,34 +4244,34 @@
   <sheetData>
     <row r="2" ht="40.5" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:2">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
